--- a/A2/Report/Tables/A2.xlsx
+++ b/A2/Report/Tables/A2.xlsx
@@ -68,9 +68,6 @@
     <t>Bulk modulus</t>
   </si>
   <si>
-    <t>ksi</t>
-  </si>
-  <si>
     <t>\beta</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Hz</t>
+  </si>
+  <si>
+    <t>psi</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,13 +592,13 @@
         <v>$\beta$</v>
       </c>
       <c r="C5" s="1">
-        <v>260</v>
+        <v>260000</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>_xlfn.CONCAT("$",F11,"$")</f>
@@ -637,7 +637,7 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" ref="B12:B29" si="1">_xlfn.CONCAT("$",F12,"$")</f>
+        <f t="shared" ref="B12:B14" si="1">_xlfn.CONCAT("$",F12,"$")</f>
         <v>$\forall_0$</v>
       </c>
       <c r="C12" s="3">
@@ -656,34 +656,34 @@
         <v>18.849555921538759</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>$k$</v>
       </c>
       <c r="C13" s="5">
-        <f>(C11*C5*1000)/C3</f>
-        <v>136135.68165555768</v>
+        <f>(C11*C5)/C3</f>
+        <v>136135.68165555771</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -691,18 +691,18 @@
       </c>
       <c r="C14" s="3">
         <f>SQRT(C13/C2)</f>
-        <v>7.3793138341056528</v>
+        <v>7.3793138341056537</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ref="B15" si="2">_xlfn.CONCAT("$",F15,"$")</f>
@@ -713,10 +713,10 @@
         <v>1.1744542733243213</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/A2/Report/Tables/A2.xlsx
+++ b/A2/Report/Tables/A2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -108,6 +109,162 @@
   </si>
   <si>
     <t>psi</t>
+  </si>
+  <si>
+    <t>Piston diameter</t>
+  </si>
+  <si>
+    <t>Rod diameter</t>
+  </si>
+  <si>
+    <t>D_R</t>
+  </si>
+  <si>
+    <t>D_P</t>
+  </si>
+  <si>
+    <t>Stroke length</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>\eta_{\forall}</t>
+  </si>
+  <si>
+    <t>Pump speed</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Relief valve opening pressure</t>
+  </si>
+  <si>
+    <t>p_{RV}</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>Accumulator pre-charge pressure</t>
+  </si>
+  <si>
+    <t>p_A</t>
+  </si>
+  <si>
+    <t>psig</t>
+  </si>
+  <si>
+    <t>Pump displacement volume</t>
+  </si>
+  <si>
+    <t>Pump volumetric efficiency</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Actuator speed</t>
+  </si>
+  <si>
+    <t>in/s</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>lbf</t>
+  </si>
+  <si>
+    <t>Pound force</t>
+  </si>
+  <si>
+    <t>Theoretical flow rate</t>
+  </si>
+  <si>
+    <t>$\Unit{in^3/rev}$</t>
+  </si>
+  <si>
+    <t>$\Unit{in^3/s}$</t>
+  </si>
+  <si>
+    <t>Q_A</t>
+  </si>
+  <si>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>Rod end area</t>
+  </si>
+  <si>
+    <t>Pisten end area</t>
+  </si>
+  <si>
+    <t>\forall_P</t>
+  </si>
+  <si>
+    <t>Piston end pressure</t>
+  </si>
+  <si>
+    <t>p_P</t>
+  </si>
+  <si>
+    <t>lbm</t>
+  </si>
+  <si>
+    <t>p_1</t>
+  </si>
+  <si>
+    <t>Pressure loss per valve land</t>
+  </si>
+  <si>
+    <t>\Delta p</t>
+  </si>
+  <si>
+    <t>Pump pressure</t>
+  </si>
+  <si>
+    <t>Q_1</t>
+  </si>
+  <si>
+    <t>p_2</t>
+  </si>
+  <si>
+    <t>p_3</t>
+  </si>
+  <si>
+    <t>\Delta_V</t>
+  </si>
+  <si>
+    <t>V_1</t>
+  </si>
+  <si>
+    <t>Pre charge pressure</t>
+  </si>
+  <si>
+    <t>Operating pressure</t>
+  </si>
+  <si>
+    <t>Maximum pressure</t>
+  </si>
+  <si>
+    <t>Accumulator effective gas volume</t>
+  </si>
+  <si>
+    <t>Change in volume</t>
+  </si>
+  <si>
+    <t>Required piston end flow rate</t>
   </si>
 </sst>
 </file>
@@ -143,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,11 +317,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +351,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,4 +903,585 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F2,"$")</f>
+        <v>$D_P$</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B25" si="0">_xlfn.CONCAT("$",F3,"$")</f>
+        <v>$D_R$</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$L$</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F5,"$")</f>
+        <v>$m$</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F6,"$")</f>
+        <v>$v$</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F7,"$")</f>
+        <v>$p_{RV}$</v>
+      </c>
+      <c r="C7" s="1">
+        <v>230</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$p_A$</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$N$</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$\forall_P$</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$\eta_{\forall}$</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F15,"$")</f>
+        <v>$W$</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C5*32.174</f>
+        <v>80435</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F16,"$")</f>
+        <v>$A_1$</v>
+      </c>
+      <c r="C16" s="3">
+        <f>(PI()/4)*C2^2</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$p_1$</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C15/C16</f>
+        <v>25603.255695193202</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F18,"$")</f>
+        <v>$Q_1$</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C16*C6</f>
+        <v>141.37166941154069</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$\Delta p$</v>
+      </c>
+      <c r="C19" s="8">
+        <f>725*((C18/100)^2)</f>
+        <v>1448.9812961349312</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$p_P$</v>
+      </c>
+      <c r="C20" s="8">
+        <f>C17+C19*2</f>
+        <v>28501.218287463063</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$$</v>
+      </c>
+      <c r="C21" s="8">
+        <f>(C20)/14.5038</f>
+        <v>1965.0862730776116</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$$</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$$</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$$</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>$$</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F26,"$")</f>
+        <v>$Q_A$</v>
+      </c>
+      <c r="C26" s="3">
+        <f>(1/60)*C10*C9</f>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F27,"$")</f>
+        <v>$A_2$</v>
+      </c>
+      <c r="C27" s="3">
+        <f>(PI()/4)*(C2^2-C3^2)</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F31,"$")</f>
+        <v>$p_1$</v>
+      </c>
+      <c r="C31" s="3">
+        <f>(C8+14.7)/14.508</f>
+        <v>125.0827129859388</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f t="shared" ref="B32:B43" si="1">_xlfn.CONCAT("$",F32,"$")</f>
+        <v>$p_2$</v>
+      </c>
+      <c r="C32" s="3">
+        <f>C21</f>
+        <v>1965.0862730776116</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$p_3$</v>
+      </c>
+      <c r="C33" s="3">
+        <f>C7</f>
+        <v>230</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$\Delta_V$</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$V_1$</v>
+      </c>
+      <c r="C35" s="3">
+        <f>C34/((C31/C32)-(C31/C33))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$$</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/A2/Report/Tables/A2.xlsx
+++ b/A2/Report/Tables/A2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -177,18 +177,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>lbf</t>
-  </si>
-  <si>
-    <t>Pound force</t>
-  </si>
-  <si>
-    <t>Theoretical flow rate</t>
-  </si>
-  <si>
     <t>$\Unit{in^3/rev}$</t>
   </si>
   <si>
@@ -265,6 +253,24 @@
   </si>
   <si>
     <t>Required piston end flow rate</t>
+  </si>
+  <si>
+    <t>Actual pump flow rate</t>
+  </si>
+  <si>
+    <t>Time for sequence</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Q_2</t>
+  </si>
+  <si>
+    <t>Delta p_2</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,14 +361,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,6 +395,1081 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Accumulator</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q2'!$B$35:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q2'!$C$35:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>141.37166941154069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.37166941154069</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41FD-401E-BB90-83AEB6E85377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q2'!$D$35:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q2'!$E$35:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41FD-401E-BB90-83AEB6E85377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381337632"/>
+        <c:axId val="381337960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381337632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381337960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381337960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Flow</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Rate [in3/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381337632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>269873</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9F10F0-1342-4353-94B9-1A73DA78BCA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,7 +1772,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +1780,7 @@
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -870,8 +1961,8 @@
         <v>$\omega_n$</v>
       </c>
       <c r="C14" s="3">
-        <f>SQRT(C13/C2)</f>
-        <v>7.3793138341056537</v>
+        <f>SQRT(386*C13/C2)</f>
+        <v>144.98051333754515</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -890,7 +1981,7 @@
       </c>
       <c r="C15" s="3">
         <f>C14/(2*PI())</f>
-        <v>1.1744542733243213</v>
+        <v>23.074365349670771</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -907,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +2010,7 @@
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,7 +2026,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -953,7 +2044,7 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -962,7 +2053,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B25" si="0">_xlfn.CONCAT("$",F3,"$")</f>
+        <f t="shared" ref="B3:B23" si="0">_xlfn.CONCAT("$",F3,"$")</f>
         <v>$D_R$</v>
       </c>
       <c r="C3" s="1">
@@ -971,7 +2062,7 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -989,7 +2080,7 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1005,9 +2096,9 @@
         <v>2500</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1025,7 +2116,7 @@
       <c r="D6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1043,7 +2134,7 @@
       <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1061,7 +2152,7 @@
       <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1079,7 +2170,7 @@
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1095,10 +2186,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,7 +2206,7 @@
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1135,353 +2226,346 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>_xlfn.CONCAT("$",F15,"$")</f>
-        <v>$W$</v>
-      </c>
-      <c r="C15" s="1">
-        <f>C5*32.174</f>
-        <v>80435</v>
+        <v>$A_1$</v>
+      </c>
+      <c r="C15" s="3">
+        <f>(PI()/4)*C2^2</f>
+        <v>3.1415926535897931</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>_xlfn.CONCAT("$",F16,"$")</f>
-        <v>$A_1$</v>
+        <v>$A_2$</v>
       </c>
       <c r="C16" s="3">
-        <f>(PI()/4)*C2^2</f>
-        <v>3.1415926535897931</v>
+        <f>(PI()/4)*(C2^2-C3^2)</f>
+        <v>2.3561944901923448</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>57</v>
+      <c r="F16" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>$p_1$</v>
-      </c>
-      <c r="C17" s="8">
-        <f>C15/C16</f>
-        <v>25603.255695193202</v>
+        <f>_xlfn.CONCAT("$",F17,"$")</f>
+        <v>$Q_1$</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C15*C6</f>
+        <v>141.37166941154069</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>_xlfn.CONCAT("$",F18,"$")</f>
-        <v>$Q_1$</v>
-      </c>
-      <c r="C18" s="4">
-        <f>C16*C6</f>
-        <v>141.37166941154069</v>
+        <v>$Q_A$</v>
+      </c>
+      <c r="C18" s="3">
+        <f>(1/60)*C10*C9</f>
+        <v>28.333333333333332</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>$\Delta p$</v>
       </c>
-      <c r="C19" s="8">
-        <f>725*((C18/100)^2)</f>
-        <v>1448.9812961349312</v>
+      <c r="C19" s="3">
+        <f>50*((C17/100)^2)</f>
+        <v>99.929744561029736</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="str">
+        <f>_xlfn.CONCAT("$",F20,"$")</f>
+        <v>$p_1$</v>
+      </c>
+      <c r="C20" s="3">
+        <f>(C5+14.5037*C23*C16)/(14.5037*C15)</f>
+        <v>97.024875297479397</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>$p_P$</v>
       </c>
-      <c r="C20" s="8">
-        <f>C17+C19*2</f>
-        <v>28501.218287463063</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>$$</v>
-      </c>
-      <c r="C21" s="8">
-        <f>(C20)/14.5038</f>
-        <v>1965.0862730776116</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="11">
+        <f>C20+C19</f>
+        <v>196.95461985850915</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="F21" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>$$</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="14">
+        <f>C16*C4/C29</f>
+        <v>106.02875205865551</v>
+      </c>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>$$</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>$$</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3">
+        <f>50*(C22/100)^2</f>
+        <v>56.21048131557923</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>$$</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>_xlfn.CONCAT("$",F26,"$")</f>
-        <v>$Q_A$</v>
+        <v>$p_1$</v>
       </c>
       <c r="C26" s="3">
-        <f>(1/60)*C10*C9</f>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f>_xlfn.CONCAT("$",F27,"$")</f>
-        <v>$A_2$</v>
-      </c>
-      <c r="C27" s="3">
-        <f>(PI()/4)*(C2^2-C3^2)</f>
-        <v>2.3561944901923448</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f>_xlfn.CONCAT("$",F31,"$")</f>
-        <v>$p_1$</v>
-      </c>
-      <c r="C31" s="3">
         <f>(C8+14.7)/14.508</f>
         <v>125.0827129859388</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <f t="shared" ref="B32:B43" si="1">_xlfn.CONCAT("$",F32,"$")</f>
+      <c r="F26" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" ref="B27:B31" si="1">_xlfn.CONCAT("$",F27,"$")</f>
         <v>$p_2$</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C27" s="3">
         <f>C21</f>
-        <v>1965.0862730776116</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>196.95461985850915</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1" t="str">
+      <c r="F27" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>$p_3$</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C28" s="3">
         <f>C7</f>
         <v>230</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="F28" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>$t$</v>
+      </c>
+      <c r="C29" s="3">
+        <f>C15*C4/C17</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="str">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>$\Delta_V$</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1" t="s">
+      <c r="C30" s="3">
+        <f>(C17*C29)-(C18*C29)</f>
+        <v>25.119630239601634</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="1" t="str">
+      <c r="F30" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>$V_1$</v>
       </c>
+      <c r="C31" s="11">
+        <f>C30/((C26/C27)^(1/1.4)-(C26/C28)^(1/1.4))</f>
+        <v>331.27094393182426</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
       <c r="C35" s="3">
-        <f>C34/((C31/C32)-(C31/C33))</f>
+        <f>C17</f>
+        <v>141.37166941154069</v>
+      </c>
+      <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$$</v>
+      <c r="E35" s="12">
+        <f>C18</f>
+        <v>28.333333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <f>C29</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C36" s="3">
+        <f>C35</f>
+        <v>141.37166941154069</v>
+      </c>
+      <c r="D36" s="3">
+        <f>B36</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E36" s="12">
+        <f>E35</f>
+        <v>28.333333333333332</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <f>B36</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="12">
+        <f>E36</f>
+        <v>28.333333333333332</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>